--- a/dls_set/LEA_05/cycle6/3.xlsx
+++ b/dls_set/LEA_05/cycle6/3.xlsx
@@ -198,10 +198,10 @@
         <v>2.1544346809387207</v>
       </c>
       <c r="B12" s="0">
-        <v>0.040740132331848145</v>
+        <v>0.061110198497772217</v>
       </c>
       <c r="C12" s="0">
-        <v>0.099792532622814178</v>
+        <v>0.12222039699554443</v>
       </c>
     </row>
     <row r="13">
@@ -209,10 +209,10 @@
         <v>2.4770762920379639</v>
       </c>
       <c r="B13" s="0">
-        <v>0.26656675338745117</v>
+        <v>0.39985013008117676</v>
       </c>
       <c r="C13" s="0">
-        <v>0.62461817264556885</v>
+        <v>0.76104438304901123</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>2.8480358123779297</v>
       </c>
       <c r="B14" s="0">
-        <v>0.79765945672988892</v>
+        <v>1.0496139526367188</v>
       </c>
       <c r="C14" s="0">
-        <v>1.2698202133178711</v>
+        <v>1.5414133071899414</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>3.2745490074157715</v>
       </c>
       <c r="B15" s="0">
-        <v>1.6164153814315796</v>
+        <v>1.9699152708053589</v>
       </c>
       <c r="C15" s="0">
-        <v>1.6946908235549927</v>
+        <v>1.9327237606048584</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>3.7649359703063965</v>
       </c>
       <c r="B16" s="0">
-        <v>2.4956862926483154</v>
+        <v>2.8891737461090088</v>
       </c>
       <c r="C16" s="0">
-        <v>2.0196924209594727</v>
+        <v>2.0573775768280029</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>4.3287615776062012</v>
       </c>
       <c r="B17" s="0">
-        <v>3.198314905166626</v>
+        <v>3.5554912090301514</v>
       </c>
       <c r="C17" s="0">
-        <v>2.6925666332244873</v>
+        <v>2.7312109470367432</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>4.9770236015319824</v>
       </c>
       <c r="B18" s="0">
-        <v>3.5994832515716553</v>
+        <v>3.8809151649475098</v>
       </c>
       <c r="C18" s="0">
-        <v>3.5905208587646484</v>
+        <v>3.875849723815918</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>5.7223672866821289</v>
       </c>
       <c r="B19" s="0">
-        <v>3.6965258121490479</v>
+        <v>3.9284200668334961</v>
       </c>
       <c r="C19" s="0">
-        <v>4.135258674621582</v>
+        <v>4.6171903610229492</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>6.57933235168457</v>
       </c>
       <c r="B20" s="0">
-        <v>3.5003249645233154</v>
+        <v>3.7340297698974609</v>
       </c>
       <c r="C20" s="0">
-        <v>4.0141019821166992</v>
+        <v>4.5281534194946289</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,10 @@
         <v>7.5646333694458008</v>
       </c>
       <c r="B21" s="0">
-        <v>2.8934521675109863</v>
+        <v>3.0919084548950195</v>
       </c>
       <c r="C21" s="0">
-        <v>3.44612717628479</v>
+        <v>3.9345018863677979</v>
       </c>
     </row>
     <row r="22">
@@ -308,10 +308,10 @@
         <v>8.6974897384643555</v>
       </c>
       <c r="B22" s="0">
-        <v>2.0459673404693604</v>
+        <v>2.1876351833343506</v>
       </c>
       <c r="C22" s="0">
-        <v>2.5812304019927979</v>
+        <v>2.99216628074646</v>
       </c>
     </row>
     <row r="23">
@@ -319,10 +319,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>1.1795830726623535</v>
+        <v>1.2634670734405518</v>
       </c>
       <c r="C23" s="0">
-        <v>1.6290677785873413</v>
+        <v>1.9267702102661133</v>
       </c>
     </row>
     <row r="24">
@@ -330,10 +330,10 @@
         <v>11.497570037841797</v>
       </c>
       <c r="B24" s="0">
-        <v>0.49980399012565613</v>
+        <v>0.54180580377578735</v>
       </c>
       <c r="C24" s="0">
-        <v>0.795433759689331</v>
+        <v>0.96550935506820679</v>
       </c>
     </row>
     <row r="25">
@@ -341,10 +341,10 @@
         <v>13.21941089630127</v>
       </c>
       <c r="B25" s="0">
-        <v>0.12182539701461792</v>
+        <v>0.14181087911128998</v>
       </c>
       <c r="C25" s="0">
-        <v>0.22782328724861145</v>
+        <v>0.28362175822257996</v>
       </c>
     </row>
     <row r="26">
@@ -418,10 +418,10 @@
         <v>35.111915588378906</v>
       </c>
       <c r="B32" s="0">
-        <v>0.010019046254456043</v>
+        <v>0.0056865592487156391</v>
       </c>
       <c r="C32" s="0">
-        <v>0.016195517033338547</v>
+        <v>0.011373118497431278</v>
       </c>
     </row>
     <row r="33">
@@ -429,10 +429,10 @@
         <v>40.370170593261719</v>
       </c>
       <c r="B33" s="0">
-        <v>0.057344637811183929</v>
+        <v>0.055282726883888245</v>
       </c>
       <c r="C33" s="0">
-        <v>0.094108365476131439</v>
+        <v>0.11056545376777649</v>
       </c>
     </row>
     <row r="34">
@@ -440,10 +440,10 @@
         <v>46.415889739990234</v>
       </c>
       <c r="B34" s="0">
-        <v>0.12979152798652649</v>
+        <v>0.14471666514873505</v>
       </c>
       <c r="C34" s="0">
-        <v>0.21402385830879211</v>
+        <v>0.26228576898574829</v>
       </c>
     </row>
     <row r="35">
@@ -451,10 +451,10 @@
         <v>53.366992950439453</v>
       </c>
       <c r="B35" s="0">
-        <v>0.25242331624031067</v>
+        <v>0.24896632134914398</v>
       </c>
       <c r="C35" s="0">
-        <v>0.30270799994468689</v>
+        <v>0.38894027471542358</v>
       </c>
     </row>
     <row r="36">
@@ -462,10 +462,10 @@
         <v>61.359073638916016</v>
       </c>
       <c r="B36" s="0">
-        <v>0.4098440408706665</v>
+        <v>0.32041388750076294</v>
       </c>
       <c r="C36" s="0">
-        <v>0.45744991302490234</v>
+        <v>0.43642884492874146</v>
       </c>
     </row>
     <row r="37">
@@ -473,10 +473,10 @@
         <v>70.548027038574219</v>
       </c>
       <c r="B37" s="0">
-        <v>0.569444477558136</v>
+        <v>0.32653334736824036</v>
       </c>
       <c r="C37" s="0">
-        <v>0.79420137405395508</v>
+        <v>0.39473026990890503</v>
       </c>
     </row>
     <row r="38">
@@ -484,10 +484,10 @@
         <v>81.113082885742188</v>
       </c>
       <c r="B38" s="0">
-        <v>0.70184051990509033</v>
+        <v>0.26963251829147339</v>
       </c>
       <c r="C38" s="0">
-        <v>1.2200725078582764</v>
+        <v>0.31353896856307983</v>
       </c>
     </row>
     <row r="39">
@@ -495,10 +495,10 @@
         <v>93.260330200195313</v>
       </c>
       <c r="B39" s="0">
-        <v>0.78612035512924194</v>
+        <v>0.18607331812381744</v>
       </c>
       <c r="C39" s="0">
-        <v>1.5766116380691528</v>
+        <v>0.26941037178039551</v>
       </c>
     </row>
     <row r="40">
@@ -506,10 +506,10 @@
         <v>107.22672271728516</v>
       </c>
       <c r="B40" s="0">
-        <v>0.80272489786148071</v>
+        <v>0.12421361356973648</v>
       </c>
       <c r="C40" s="0">
-        <v>1.7342835664749146</v>
+        <v>0.24842722713947296</v>
       </c>
     </row>
     <row r="41">
@@ -517,10 +517,10 @@
         <v>123.28467559814453</v>
       </c>
       <c r="B41" s="0">
-        <v>0.74410629272460938</v>
+        <v>0.10216101258993149</v>
       </c>
       <c r="C41" s="0">
-        <v>1.6306998729705811</v>
+        <v>0.20432202517986298</v>
       </c>
     </row>
     <row r="42">
@@ -528,10 +528,10 @@
         <v>141.74742126464844</v>
       </c>
       <c r="B42" s="0">
-        <v>0.59904539585113525</v>
+        <v>0.088003858923912048</v>
       </c>
       <c r="C42" s="0">
-        <v>1.3025369644165039</v>
+        <v>0.1760077178478241</v>
       </c>
     </row>
     <row r="43">
@@ -539,10 +539,10 @@
         <v>162.97508239746094</v>
       </c>
       <c r="B43" s="0">
-        <v>0.528497040271759</v>
+        <v>0.26527580618858337</v>
       </c>
       <c r="C43" s="0">
-        <v>0.8248903751373291</v>
+        <v>0.33911675214767456</v>
       </c>
     </row>
     <row r="44">
@@ -550,10 +550,10 @@
         <v>187.38174438476563</v>
       </c>
       <c r="B44" s="0">
-        <v>0.92067903280258179</v>
+        <v>1.1317200660705566</v>
       </c>
       <c r="C44" s="0">
-        <v>1.6160967350006104</v>
+        <v>2.0022642612457275</v>
       </c>
     </row>
     <row r="45">
@@ -561,10 +561,10 @@
         <v>215.44346618652344</v>
       </c>
       <c r="B45" s="0">
-        <v>1.5927121639251709</v>
+        <v>2.3193156719207764</v>
       </c>
       <c r="C45" s="0">
-        <v>3.534466028213501</v>
+        <v>4.3246865272521973</v>
       </c>
     </row>
     <row r="46">
@@ -572,10 +572,10 @@
         <v>247.7076416015625</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2055954933166504</v>
+        <v>3.20468807220459</v>
       </c>
       <c r="C46" s="0">
-        <v>4.9457545280456543</v>
+        <v>6.0618529319763184</v>
       </c>
     </row>
     <row r="47">
@@ -583,10 +583,10 @@
         <v>284.8035888671875</v>
       </c>
       <c r="B47" s="0">
-        <v>2.4401047229766846</v>
+        <v>3.3346977233886719</v>
       </c>
       <c r="C47" s="0">
-        <v>5.1062836647033691</v>
+        <v>6.3328094482421875</v>
       </c>
     </row>
     <row r="48">
@@ -594,10 +594,10 @@
         <v>327.45492553710938</v>
       </c>
       <c r="B48" s="0">
-        <v>2.3221979141235352</v>
+        <v>2.6490767002105713</v>
       </c>
       <c r="C48" s="0">
-        <v>3.9331514835357666</v>
+        <v>5.0270686149597168</v>
       </c>
     </row>
     <row r="49">
@@ -605,10 +605,10 @@
         <v>376.49356079101563</v>
       </c>
       <c r="B49" s="0">
-        <v>2.0620059967041016</v>
+        <v>1.496807336807251</v>
       </c>
       <c r="C49" s="0">
-        <v>2.3676133155822754</v>
+        <v>2.827465295791626</v>
       </c>
     </row>
     <row r="50">
@@ -616,10 +616,10 @@
         <v>432.87612915039063</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1633317470550537</v>
+        <v>0.76980262994766235</v>
       </c>
       <c r="C50" s="0">
-        <v>2.4542863368988037</v>
+        <v>0.86034637689590454</v>
       </c>
     </row>
     <row r="51">
@@ -627,10 +627,10 @@
         <v>497.70233154296875</v>
       </c>
       <c r="B51" s="0">
-        <v>3.2914168834686279</v>
+        <v>1.6585675477981567</v>
       </c>
       <c r="C51" s="0">
-        <v>4.0686726570129395</v>
+        <v>3.3171350955963135</v>
       </c>
     </row>
     <row r="52">
@@ -638,10 +638,10 @@
         <v>572.23681640625</v>
       </c>
       <c r="B52" s="0">
-        <v>4.9999246597290039</v>
+        <v>3.6877670288085938</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6625638008117676</v>
+        <v>7.3755340576171875</v>
       </c>
     </row>
     <row r="53">
@@ -649,10 +649,10 @@
         <v>657.9332275390625</v>
       </c>
       <c r="B53" s="0">
-        <v>6.3383622169494629</v>
+        <v>5.5730428695678711</v>
       </c>
       <c r="C53" s="0">
-        <v>9.326019287109375</v>
+        <v>11.13145637512207</v>
       </c>
     </row>
     <row r="54">
@@ -660,10 +660,10 @@
         <v>756.46337890625</v>
       </c>
       <c r="B54" s="0">
-        <v>6.8485183715820313</v>
+        <v>6.6729903221130371</v>
       </c>
       <c r="C54" s="0">
-        <v>10.581327438354492</v>
+        <v>12.895022392272949</v>
       </c>
     </row>
     <row r="55">
@@ -671,10 +671,10 @@
         <v>869.74896240234375</v>
       </c>
       <c r="B55" s="0">
-        <v>6.2949285507202148</v>
+        <v>6.5645241737365723</v>
       </c>
       <c r="C55" s="0">
-        <v>9.7427492141723633</v>
+        <v>11.912178993225098</v>
       </c>
     </row>
     <row r="56">
@@ -682,10 +682,10 @@
         <v>1000</v>
       </c>
       <c r="B56" s="0">
-        <v>4.8289394378662109</v>
+        <v>5.2994780540466309</v>
       </c>
       <c r="C56" s="0">
-        <v>7.1085824966430664</v>
+        <v>8.63383960723877</v>
       </c>
     </row>
     <row r="57">
@@ -693,10 +693,10 @@
         <v>1149.7569580078125</v>
       </c>
       <c r="B57" s="0">
-        <v>2.9691250324249268</v>
+        <v>3.4213066101074219</v>
       </c>
       <c r="C57" s="0">
-        <v>3.8524298667907715</v>
+        <v>4.5907869338989258</v>
       </c>
     </row>
     <row r="58">
@@ -704,10 +704,10 @@
         <v>1321.941162109375</v>
       </c>
       <c r="B58" s="0">
-        <v>1.3935493230819702</v>
+        <v>1.7351020574569702</v>
       </c>
       <c r="C58" s="0">
-        <v>1.7428433895111084</v>
+        <v>2.0638277530670166</v>
       </c>
     </row>
     <row r="59">
@@ -715,10 +715,10 @@
         <v>1519.9110107421875</v>
       </c>
       <c r="B59" s="0">
-        <v>0.57874208688735962</v>
+        <v>0.85307943820953369</v>
       </c>
       <c r="C59" s="0">
-        <v>1.3883713483810425</v>
+        <v>1.7061588764190674</v>
       </c>
     </row>
     <row r="60">
@@ -726,10 +726,10 @@
         <v>1747.5283203125</v>
       </c>
       <c r="B60" s="0">
-        <v>0.37570551037788391</v>
+        <v>0.56355828046798706</v>
       </c>
       <c r="C60" s="0">
-        <v>0.92028689384460449</v>
+        <v>1.1271165609359741</v>
       </c>
     </row>
     <row r="61">
@@ -737,10 +737,10 @@
         <v>2009.23291015625</v>
       </c>
       <c r="B61" s="0">
-        <v>0.17526508867740631</v>
+        <v>0.26289764046669006</v>
       </c>
       <c r="C61" s="0">
-        <v>0.42931005358695984</v>
+        <v>0.52579528093338013</v>
       </c>
     </row>
     <row r="62">
@@ -748,10 +748,10 @@
         <v>2310.129638671875</v>
       </c>
       <c r="B62" s="0">
-        <v>0.040049489587545395</v>
+        <v>0.060074236243963242</v>
       </c>
       <c r="C62" s="0">
-        <v>0.098100818693637848</v>
+        <v>0.12014847248792648</v>
       </c>
     </row>
     <row r="63">
@@ -759,10 +759,10 @@
         <v>2656.087890625</v>
       </c>
       <c r="B63" s="0">
-        <v>0.3524993360042572</v>
+        <v>0.52874898910522461</v>
       </c>
       <c r="C63" s="0">
-        <v>0.86344349384307861</v>
+        <v>1.0574979782104492</v>
       </c>
     </row>
     <row r="64">
@@ -770,10 +770,10 @@
         <v>3053.855712890625</v>
       </c>
       <c r="B64" s="0">
-        <v>1.2180954217910767</v>
+        <v>1.8271431922912598</v>
       </c>
       <c r="C64" s="0">
-        <v>2.9837121963500977</v>
+        <v>3.6542863845825195</v>
       </c>
     </row>
     <row r="65">
@@ -781,10 +781,10 @@
         <v>3511.19189453125</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2821791172027588</v>
+        <v>3.4232687950134277</v>
       </c>
       <c r="C65" s="0">
-        <v>5.5901741981506348</v>
+        <v>6.8465375900268555</v>
       </c>
     </row>
     <row r="66">
@@ -792,10 +792,10 @@
         <v>4037.017333984375</v>
       </c>
       <c r="B66" s="0">
-        <v>3.3033027648925781</v>
+        <v>4.6186394691467285</v>
       </c>
       <c r="C66" s="0">
-        <v>7.4518203735351563</v>
+        <v>9.237278938293457</v>
       </c>
     </row>
     <row r="67">
@@ -803,10 +803,10 @@
         <v>4641.5888671875</v>
       </c>
       <c r="B67" s="0">
-        <v>4.034764289855957</v>
+        <v>4.9032154083251953</v>
       </c>
       <c r="C67" s="0">
-        <v>7.7916622161865234</v>
+        <v>9.7286376953125</v>
       </c>
     </row>
     <row r="68">
@@ -814,10 +814,10 @@
         <v>5336.69921875</v>
       </c>
       <c r="B68" s="0">
-        <v>4.3288159370422363</v>
+        <v>4.2315406799316406</v>
       </c>
       <c r="C68" s="0">
-        <v>6.8248457908630371</v>
+        <v>7.99702787399292</v>
       </c>
     </row>
     <row r="69">
@@ -825,10 +825,10 @@
         <v>6135.9072265625</v>
       </c>
       <c r="B69" s="0">
-        <v>4.2676610946655273</v>
+        <v>2.987107515335083</v>
       </c>
       <c r="C69" s="0">
-        <v>5.8495521545410156</v>
+        <v>4.7305364608764648</v>
       </c>
     </row>
     <row r="70">
@@ -836,10 +836,10 @@
         <v>7054.80224609375</v>
       </c>
       <c r="B70" s="0">
-        <v>4.0906267166137695</v>
+        <v>1.8217302560806274</v>
       </c>
       <c r="C70" s="0">
-        <v>5.9559149742126465</v>
+        <v>1.6008585691452026</v>
       </c>
     </row>
     <row r="71">
@@ -847,10 +847,10 @@
         <v>8111.30859375</v>
       </c>
       <c r="B71" s="0">
-        <v>4.5502820014953613</v>
+        <v>2.1493856906890869</v>
       </c>
       <c r="C71" s="0">
-        <v>5.755854606628418</v>
+        <v>1.5313806533813477</v>
       </c>
     </row>
     <row r="72">
@@ -858,10 +858,10 @@
         <v>9326.033203125</v>
       </c>
       <c r="B72" s="0">
-        <v>5.4679584503173828</v>
+        <v>3.8377039432525635</v>
       </c>
       <c r="C72" s="0">
-        <v>4.9463896751403809</v>
+        <v>3.9504415988922119</v>
       </c>
     </row>
   </sheetData>
